--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2444057.436515013</v>
+        <v>2441514.319546417</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9301421.151885889</v>
+        <v>9301421.151885888</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415049</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>218.5859760619274</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>106.965980909749</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>135.1239956007873</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.9991078213426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V4" t="n">
-        <v>101.6783732339195</v>
+        <v>156.1239197672804</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2905114143455</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143455</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2905114143455</v>
+        <v>290.290511414345</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401377</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157314</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>124.3087480976051</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.290511414345</v>
       </c>
       <c r="W5" t="n">
-        <v>85.39774262201203</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.290511414345</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>48.97773938789419</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790368</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>154.3205428116071</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>51.51792826299493</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441978</v>
       </c>
       <c r="S7" t="n">
-        <v>166.3813354776729</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>197.6836481114869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>21.78155647019764</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>29.04795685916117</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.959001240238</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>102.5041944721329</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338606</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609949</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>394.1552348223628</v>
+        <v>259.9714295377604</v>
       </c>
       <c r="C2" t="n">
-        <v>394.1552348223628</v>
+        <v>259.9714295377604</v>
       </c>
       <c r="D2" t="n">
-        <v>394.1552348223628</v>
+        <v>259.9714295377604</v>
       </c>
       <c r="E2" t="n">
-        <v>394.1552348223628</v>
+        <v>259.9714295377604</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>253.0259287885569</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>239.9785510653884</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
         <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859561</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444243</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660193</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T2" t="n">
-        <v>744.4319308337305</v>
+        <v>744.4319308337291</v>
       </c>
       <c r="U2" t="n">
-        <v>744.4319308337305</v>
+        <v>502.2016801857447</v>
       </c>
       <c r="V2" t="n">
-        <v>744.4319308337305</v>
+        <v>259.9714295377604</v>
       </c>
       <c r="W2" t="n">
-        <v>744.4319308337305</v>
+        <v>259.9714295377604</v>
       </c>
       <c r="X2" t="n">
-        <v>636.3854854703476</v>
+        <v>259.9714295377604</v>
       </c>
       <c r="Y2" t="n">
-        <v>636.3854854703476</v>
+        <v>259.9714295377604</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.2600656274645</v>
+        <v>155.6735202965601</v>
       </c>
       <c r="C3" t="n">
-        <v>574.8070363463376</v>
+        <v>155.6735202965601</v>
       </c>
       <c r="D3" t="n">
-        <v>425.8726266850863</v>
+        <v>155.6735202965601</v>
       </c>
       <c r="E3" t="n">
-        <v>266.6351716796308</v>
+        <v>155.6735202965601</v>
       </c>
       <c r="F3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467734</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303712</v>
+        <v>290.1388331607131</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849759</v>
+        <v>469.6361695153178</v>
       </c>
       <c r="N3" t="n">
-        <v>640.9292585450657</v>
+        <v>668.2929111679822</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367437</v>
+        <v>827.8052238367426</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640425</v>
+        <v>936.4948513640412</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682062</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="S3" t="n">
-        <v>788.6531038308409</v>
+        <v>788.6531038308395</v>
       </c>
       <c r="T3" t="n">
-        <v>788.6531038308409</v>
+        <v>591.6638079909271</v>
       </c>
       <c r="U3" t="n">
-        <v>788.6531038308409</v>
+        <v>363.5250205020929</v>
       </c>
       <c r="V3" t="n">
-        <v>788.6531038308409</v>
+        <v>363.5250205020929</v>
       </c>
       <c r="W3" t="n">
-        <v>788.6531038308409</v>
+        <v>363.5250205020929</v>
       </c>
       <c r="X3" t="n">
-        <v>788.6531038308409</v>
+        <v>155.6735202965601</v>
       </c>
       <c r="Y3" t="n">
-        <v>749.2600656274645</v>
+        <v>155.6735202965601</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.5368141589925</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C4" t="n">
-        <v>459.6006312310856</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>309.4839918187499</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584451</v>
+        <v>656.2710011584438</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470439</v>
+        <v>830.3658965470427</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456595</v>
+        <v>955.8134731456582</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660194</v>
+        <v>828.7538312854207</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660194</v>
+        <v>828.7538312854207</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660194</v>
+        <v>828.7538312854207</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660194</v>
+        <v>586.5235806374363</v>
       </c>
       <c r="V4" t="n">
-        <v>856.5263650570098</v>
+        <v>428.8226515795774</v>
       </c>
       <c r="W4" t="n">
-        <v>856.5263650570098</v>
+        <v>428.8226515795774</v>
       </c>
       <c r="X4" t="n">
-        <v>628.5368141589925</v>
+        <v>200.8331006815601</v>
       </c>
       <c r="Y4" t="n">
-        <v>628.5368141589925</v>
+        <v>200.8331006815601</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>922.7078702657218</v>
+        <v>449.1521760348595</v>
       </c>
       <c r="C5" t="n">
-        <v>629.4851314633527</v>
+        <v>449.1521760348595</v>
       </c>
       <c r="D5" t="n">
-        <v>336.2623926609836</v>
+        <v>449.1521760348595</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0396538586144</v>
+        <v>155.9294372324909</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941093</v>
+        <v>148.9839364832874</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314764</v>
+        <v>136.1130242870241</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314764</v>
+        <v>136.1130242870241</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951902</v>
+        <v>59.13673382951947</v>
       </c>
       <c r="K5" t="n">
         <v>163.7002683444944</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084619</v>
+        <v>330.3223409084616</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162837</v>
+        <v>547.390938716283</v>
       </c>
       <c r="N5" t="n">
-        <v>772.585741753701</v>
+        <v>772.5857417536999</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416869</v>
+        <v>971.8955472416853</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171408</v>
+        <v>1107.500854171406</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="S5" t="n">
-        <v>1008.968216348562</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="T5" t="n">
-        <v>1008.968216348562</v>
+        <v>1035.597653639597</v>
       </c>
       <c r="U5" t="n">
-        <v>1008.968216348562</v>
+        <v>1035.597653639597</v>
       </c>
       <c r="V5" t="n">
-        <v>1008.968216348562</v>
+        <v>742.3749148372282</v>
       </c>
       <c r="W5" t="n">
-        <v>922.7078702657218</v>
+        <v>742.3749148372282</v>
       </c>
       <c r="X5" t="n">
-        <v>922.7078702657218</v>
+        <v>742.3749148372282</v>
       </c>
       <c r="Y5" t="n">
-        <v>922.7078702657218</v>
+        <v>449.1521760348595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.69570494132358</v>
+        <v>197.6762701942746</v>
       </c>
       <c r="C6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508894</v>
+        <v>25.79522430508879</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063286</v>
+        <v>108.3459783063282</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119396</v>
+        <v>265.668195611939</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702514</v>
+        <v>468.6126709702505</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269115</v>
+        <v>691.3371276269104</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145417</v>
+        <v>872.8666975145402</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356676</v>
+        <v>999.227115035666</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657382</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891823</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891823</v>
+        <v>1013.449017956126</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891823</v>
+        <v>816.8402904184065</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891823</v>
+        <v>588.7077145993578</v>
       </c>
       <c r="V6" t="n">
-        <v>910.7601976600799</v>
+        <v>353.5556063676151</v>
       </c>
       <c r="W6" t="n">
-        <v>656.5228409318784</v>
+        <v>353.5556063676151</v>
       </c>
       <c r="X6" t="n">
-        <v>448.6713407263455</v>
+        <v>353.5556063676151</v>
       </c>
       <c r="Y6" t="n">
-        <v>240.9110419613916</v>
+        <v>197.6762701942746</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>490.1891568357834</v>
+        <v>244.1977352178171</v>
       </c>
       <c r="C7" t="n">
-        <v>321.2529739078765</v>
+        <v>75.26155228991016</v>
       </c>
       <c r="D7" t="n">
-        <v>171.1363344955408</v>
+        <v>75.26155228991016</v>
       </c>
       <c r="E7" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314764</v>
+        <v>23.2232409131476</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279145</v>
+        <v>133.2846894279143</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993036</v>
+        <v>329.6518852993032</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276983</v>
+        <v>547.0826837276978</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730491</v>
+        <v>764.7780801730485</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967851</v>
+        <v>949.8387182967844</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195907</v>
+        <v>1084.669382195906</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899862</v>
+        <v>967.6652614208738</v>
       </c>
       <c r="S7" t="n">
-        <v>926.5221098719099</v>
+        <v>761.604456152795</v>
       </c>
       <c r="T7" t="n">
-        <v>926.5221098719099</v>
+        <v>761.604456152795</v>
       </c>
       <c r="U7" t="n">
-        <v>926.5221098719099</v>
+        <v>761.604456152795</v>
       </c>
       <c r="V7" t="n">
-        <v>671.8376216660231</v>
+        <v>761.604456152795</v>
       </c>
       <c r="W7" t="n">
-        <v>671.8376216660231</v>
+        <v>472.1872861158344</v>
       </c>
       <c r="X7" t="n">
-        <v>671.8376216660231</v>
+        <v>244.1977352178171</v>
       </c>
       <c r="Y7" t="n">
-        <v>671.8376216660231</v>
+        <v>244.1977352178171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.685290191162</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2362.658875762289</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2009.890220492175</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1636.424462231096</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1246.285130255284</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4884,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1607.104749509688</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1410.476001669549</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1187.497520864284</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2416.701466165879</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2233.846631820783</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2014.245166843724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1725.169940187922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1470.485451982035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.068281945074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>953.0787310470569</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.2861519035267</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>803.2707707770319</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>653.1541313646961</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,61 +7388,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7640,13 +7640,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928426</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>66.78462588923455</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.14457273477296</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.64005315446207</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3252676074461</v>
+        <v>111.3252676074451</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506818</v>
+        <v>54.74236624506833</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460149</v>
+        <v>128.6722568460146</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471575</v>
+        <v>54.95314511566534</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856357</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.41624546988369</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>43.92976817443623</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8770068749577</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>817331.912296282</v>
+        <v>817331.9122962819</v>
       </c>
     </row>
     <row r="3">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597545</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597547</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210835</v>
+        <v>55881.32342210798</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276249</v>
+        <v>363279.8866276256</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.3107835359</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440447</v>
+        <v>12992.5963444044</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666279</v>
+        <v>88656.33991666292</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431041</v>
+        <v>246054.6603431043</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26448,16 +26448,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302695</v>
+        <v>65162.4012330269</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338147.5825756692</v>
+        <v>-338147.5825756687</v>
       </c>
       <c r="C6" t="n">
-        <v>269208.9866465802</v>
+        <v>269208.9866465806</v>
       </c>
       <c r="D6" t="n">
-        <v>36138.61859453187</v>
+        <v>36138.61859453106</v>
       </c>
       <c r="E6" t="n">
-        <v>3933.779164471183</v>
+        <v>3899.041239035766</v>
       </c>
       <c r="F6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="G6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890174</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="I6" t="n">
-        <v>511419.2207890171</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="J6" t="n">
-        <v>448674.9100054815</v>
+        <v>448640.1720800458</v>
       </c>
       <c r="K6" t="n">
-        <v>498426.6244446125</v>
+        <v>498391.886519177</v>
       </c>
       <c r="L6" t="n">
-        <v>422762.8808723544</v>
+        <v>422728.1429469187</v>
       </c>
       <c r="M6" t="n">
-        <v>378811.9270600905</v>
+        <v>378777.1891346548</v>
       </c>
       <c r="N6" t="n">
-        <v>511419.2207890173</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="O6" t="n">
-        <v>511419.2207890171</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="P6" t="n">
-        <v>511419.2207890173</v>
+        <v>511384.4828635816</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575571</v>
+        <v>636.9329421575566</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143455</v>
+        <v>290.290511414345</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.4568418194923</v>
+        <v>43.45684181949196</v>
       </c>
       <c r="D3" t="n">
-        <v>297.131949959982</v>
+        <v>297.1319499599825</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284062</v>
+        <v>50.48256327284045</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856933</v>
+        <v>350.2943206856938</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996096</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284071</v>
+        <v>50.48256327284045</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856933</v>
+        <v>350.2943206856938</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284062</v>
+        <v>50.48256327284045</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856933</v>
+        <v>350.2943206856938</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9258935219757</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002066</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>96.45490801328816</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079613</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863039</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>262.76511976872</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.945216792596568</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.6835879559618</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
@@ -27591,10 +27591,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>46.45270651659249</v>
       </c>
       <c r="V4" t="n">
-        <v>150.4592700899085</v>
+        <v>96.01372355654763</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035666208</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633748</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>91.63985865791631</v>
+        <v>91.63985865791682</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401377</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157315</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>87.57836195177372</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.46174705578994</v>
       </c>
       <c r="W5" t="n">
-        <v>263.843226095401</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>95.94742724170862</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>123.7307596004215</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27713,7 +27713,7 @@
         <v>99.00406368337438</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370919</v>
+        <v>42.22754232370923</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790375</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>51.36215296569731</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>94.91603438357424</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340522</v>
+        <v>12.15545075340529</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>37.61886173772501</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27831,13 +27831,13 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27907,10 +27907,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>130.068610358648</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>364.4563821858559</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>72.50961556041246</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.952100449541052e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.522685120334029e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.353712668104585e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-5.260329494105887e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834398</v>
+        <v>2.560534440834396</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219529</v>
+        <v>26.22307334219527</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026825</v>
+        <v>98.71500403026816</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977688</v>
+        <v>217.3221599977686</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782889</v>
+        <v>325.7095828782886</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719747</v>
+        <v>404.0715387719744</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341634</v>
+        <v>449.607443134163</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141842</v>
+        <v>456.8825616141838</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681371</v>
+        <v>431.4212472681367</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600378</v>
+        <v>368.2080532600375</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976559</v>
+        <v>276.5089135976556</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690639</v>
+        <v>160.8431715690638</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051392</v>
+        <v>58.34817857051387</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475259</v>
+        <v>11.20873951475258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667519</v>
+        <v>0.2048427552667517</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772859</v>
+        <v>1.370006705772858</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312208</v>
+        <v>13.23138055312207</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770589</v>
+        <v>47.16909052770585</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888296</v>
+        <v>129.4355896888295</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756111</v>
+        <v>221.226038975611</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916026</v>
+        <v>297.4657103916023</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758686</v>
+        <v>347.1284534758683</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264244</v>
+        <v>356.315910726424</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511415</v>
+        <v>325.9594463511413</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892049</v>
+        <v>261.6111927892047</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316372</v>
+        <v>174.8801542316371</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473946</v>
+        <v>85.06059178473939</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959672</v>
+        <v>25.4472736795967</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479197</v>
+        <v>5.522088432479191</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663549</v>
+        <v>0.0901320201166354</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611988</v>
+        <v>1.148567600611987</v>
       </c>
       <c r="H7" t="n">
         <v>10.21181012180477</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749507</v>
+        <v>34.54056020749504</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326756</v>
+        <v>81.20372936326748</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438291</v>
+        <v>133.442672143829</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400769</v>
+        <v>170.7606776400767</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577501</v>
+        <v>180.0431921577499</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645601</v>
+        <v>175.7621674645599</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846836</v>
+        <v>162.3448095846835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.914030532199</v>
+        <v>138.9140305321988</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579113</v>
+        <v>96.17687426579104</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297174</v>
+        <v>51.6437759329717</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157437</v>
+        <v>20.01640082157435</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705767</v>
+        <v>4.907516111705762</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156306</v>
+        <v>0.06264914185156301</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268378</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714079</v>
+        <v>205.4003814606424</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>239.8079481415049</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>188.7636013047252</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472414</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295332</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>147.4099394863219</v>
+        <v>147.4099394863209</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353401</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108246</v>
+        <v>36.27625547108227</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333083</v>
+        <v>105.619731833308</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019875</v>
+        <v>168.3051238019871</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068907</v>
+        <v>219.2612099068903</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175933</v>
+        <v>227.4694980175929</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464504</v>
+        <v>201.32303584645</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047683</v>
+        <v>136.975057504768</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320638</v>
+        <v>54.20322372320615</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022162929</v>
+        <v>2.597963022162816</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125215</v>
+        <v>83.38460000125198</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117284</v>
+        <v>158.9113306117281</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538503</v>
+        <v>204.99441955385</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430911</v>
+        <v>224.9741986430907</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066971</v>
+        <v>183.3632019066968</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748747</v>
+        <v>127.6367853748745</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916306</v>
+        <v>163.5706369916302</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179463</v>
+        <v>111.1731803179462</v>
       </c>
       <c r="L7" t="n">
-        <v>198.350702900393</v>
+        <v>198.3507029003929</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195907</v>
+        <v>219.6270691195905</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437887</v>
+        <v>219.8943398437885</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987233</v>
+        <v>186.9299374987231</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970924</v>
+        <v>136.1925897970923</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409674</v>
+        <v>10.01483101409666</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>622.455381029198</v>
+        <v>421.8844773977058</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>77.54037261451921</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
